--- a/communication_protocol.xlsx
+++ b/communication_protocol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Message code (HEX value)</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>0x30</t>
+  </si>
+  <si>
+    <t>Cannon LED</t>
+  </si>
+  <si>
+    <t>Start/stop "shooting"</t>
+  </si>
+  <si>
+    <t>cannonState</t>
+  </si>
+  <si>
+    <t>Cannon isn't shooting</t>
+  </si>
+  <si>
+    <t>Cannon is shooting</t>
   </si>
 </sst>
 </file>
@@ -529,7 +547,7 @@
   <dimension ref="A3:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -780,8 +798,20 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -791,8 +821,14 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -806,7 +842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -817,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -828,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -839,7 +875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -850,7 +886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -861,28 +897,36 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
